--- a/dat_accuracy_log.xlsx
+++ b/dat_accuracy_log.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbkot\OneDrive - WageningenUR\Msc Biology WUR\Thesis\Final Report\Article New Phytologist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b876cc13d5ca03e6/Documents/Wageningen University/Msc Biology WUR/Thesis/Final Report/Article Scientific Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{8208B13C-4016-4A0B-8FFA-9268702B7EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D55B0DD-96D8-42F9-B74D-597B8CEDE931}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{8208B13C-4016-4A0B-8FFA-9268702B7EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E3578C1-F2FE-4424-AD8D-45BBF134AE0A}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1545" windowWidth="16770" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Years" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -693,11 +685,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -763,7 +758,7 @@
         <v>-0.60524939766983066</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:H66" si="0">F3*0.9</f>
+        <f t="shared" ref="G3:G66" si="0">F3*0.9</f>
         <v>-0.54472445790284763</v>
       </c>
     </row>
@@ -807,6 +802,12 @@
       <c r="E5">
         <v>2.7583704450460158</v>
       </c>
+      <c r="F5">
+        <v>-0.14577999999999999</v>
+      </c>
+      <c r="G5">
+        <v>-0.45687</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2292,7 +2293,7 @@
         <v>0.74064651151810368</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:H97" si="1">F67*0.9</f>
+        <f t="shared" ref="G67:G97" si="1">F67*0.9</f>
         <v>0.6665818603662933</v>
       </c>
     </row>
@@ -3026,7 +3027,7 @@
       </c>
       <c r="F99">
         <f>SUM(F2:F97)/96</f>
-        <v>-0.1454390941057972</v>
+        <v>-0.14695763577246387</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,12 +3035,12 @@
         <v>102</v>
       </c>
       <c r="D100">
-        <f>SQRT(SUMSQ(D2:D97)/COUNTA(D2:D97))</f>
+        <f>SQRT(SUMSQ(D2:D97)/COUNT(D2:D97))</f>
         <v>0.52932509203609956</v>
       </c>
       <c r="F100">
-        <f>SQRT(SUMSQ(F2:F97)/COUNTA(F2:F97))</f>
-        <v>0.77590327525198699</v>
+        <f>SQRT(SUMSQ(F2:F97)/COUNT(F2:F97))</f>
+        <v>0.77199492388458457</v>
       </c>
     </row>
   </sheetData>
